--- a/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-platform-data-clean.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-platform-data-clean.xlsx
@@ -21,12 +21,12 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2082,7 +2082,7 @@
     <t>now</t>
   </si>
   <si>
-    <t>-1</t>
+    <t>2124</t>
   </si>
   <si>
     <t>HMNT.AUDIT_OP_LOG</t>
@@ -2098,6 +2098,9 @@
   </si>
   <si>
     <t>/v1/audit/operational/logs/clear/within</t>
+  </si>
+  <si>
+    <t>542</t>
   </si>
 </sst>
 </file>
@@ -3252,7 +3255,7 @@
         <v>78</v>
       </c>
       <c r="R9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
